--- a/Аспекты тестов/Набор тестов для функции checkStrAfterKeyWord.xlsx
+++ b/Аспекты тестов/Набор тестов для функции checkStrAfterKeyWord.xlsx
@@ -5,23 +5,22 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
     <sheet name="Хороший набор тестов" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Наименование</t>
   </si>
@@ -451,6 +450,9 @@
   </si>
   <si>
     <t>"int val = (int) a + (int)c + (int)someFunction", "someFunction", "(", ")"</t>
+  </si>
+  <si>
+    <t>// Проверить, начинается и заканчивается ли подстрока после ключевого слова с указанных начальных и конечных подстрок.</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1059,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1329,7 +1331,7 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="5"/>
@@ -6547,7 +6549,7 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
